--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -32,13 +32,13 @@
     <t>Insertion Sort</t>
   </si>
   <si>
-    <t>Merge Sorte</t>
-  </si>
-  <si>
     <t>Heap Sort</t>
   </si>
   <si>
-    <t>QuickSort</t>
+    <t>Merge Sort</t>
+  </si>
+  <si>
+    <t>Quick Sort</t>
   </si>
 </sst>
 </file>
@@ -304,7 +304,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Merge Sorte</c:v>
+                  <c:v>Merge Sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -540,7 +540,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>QuickSort</c:v>
+                  <c:v>Quick Sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -659,8 +659,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1015114752"/>
-        <c:axId val="1015120192"/>
+        <c:axId val="-1843171552"/>
+        <c:axId val="-1843171008"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -807,7 +807,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Plan1!$B$1</c15:sqref>
@@ -851,7 +851,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Plan1!$A$2:$A$10</c15:sqref>
@@ -893,7 +893,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Plan1!$B$2:$B$10</c15:sqref>
@@ -913,7 +913,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1015114752"/>
+        <c:axId val="-1843171552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -950,7 +950,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.35758801367541238"/>
+              <c:y val="0.79307181481832845"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1017,7 +1024,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1015120192"/>
+        <c:crossAx val="-1843171008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1025,7 +1032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1015120192"/>
+        <c:axId val="-1843171008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60"/>
@@ -1133,7 +1140,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1015114752"/>
+        <c:crossAx val="-1843171552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1299,7 +1306,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Merge Sorte</c:v>
+                  <c:v>Merge Sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1503,7 +1510,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>QuickSort</c:v>
+                  <c:v>Quick Sort</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1605,8 +1612,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1373573776"/>
-        <c:axId val="1373575952"/>
+        <c:axId val="-1843178080"/>
+        <c:axId val="-1843175904"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1737,7 +1744,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Plan1!$B$1</c15:sqref>
@@ -1765,7 +1772,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Plan1!$A$2:$A$10</c15:sqref>
@@ -1807,7 +1814,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Plan1!$B$2:$B$10</c15:sqref>
@@ -1829,7 +1836,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Plan1!$C$1</c15:sqref>
@@ -1860,7 +1867,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Plan1!$A$2:$A$10</c15:sqref>
@@ -1902,7 +1909,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Plan1!$C$2:$C$10</c15:sqref>
@@ -1949,7 +1956,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1373573776"/>
+        <c:axId val="-1843178080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1981,7 +1988,14 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.33889334418100103"/>
+              <c:y val="0.79297361427486712"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2048,7 +2062,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1373575952"/>
+        <c:crossAx val="-1843175904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2056,7 +2070,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1373575952"/>
+        <c:axId val="-1843175904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2168,7 +2182,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1373573776"/>
+        <c:crossAx val="-1843178080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3271,16 +3285,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3301,16 +3315,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>471486</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>33335</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>309561</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>100010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>147486</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>146135</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>595161</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22310</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3597,16 +3611,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3617,10 +3632,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>

--- a/resultados.xlsx
+++ b/resultados.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26124"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\francisco\Desktop\bucket_sub_algorithms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HugoPiauilino/Desktop/bucket_sub_algorithms/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -228,31 +231,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30000</c:v>
+                  <c:v>30000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80000</c:v>
+                  <c:v>80000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000</c:v>
+                  <c:v>100000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>150000</c:v>
+                  <c:v>150000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200000</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -267,28 +270,28 @@
                   <c:v>2.3E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5300000000000002E-4</c:v>
+                  <c:v>0.000253</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1529999999999999E-3</c:v>
+                  <c:v>0.001153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.7064E-2</c:v>
+                  <c:v>0.037064</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.2469699999999999</c:v>
+                  <c:v>1.24697</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.1857930000000003</c:v>
+                  <c:v>9.185793</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>14.000083999999999</c:v>
+                  <c:v>14.000084</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>31.729232</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57.557999000000002</c:v>
+                  <c:v>57.557999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -346,31 +349,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30000</c:v>
+                  <c:v>30000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80000</c:v>
+                  <c:v>80000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000</c:v>
+                  <c:v>100000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>150000</c:v>
+                  <c:v>150000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200000</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,28 +388,28 @@
                   <c:v>5.1E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E-4</c:v>
+                  <c:v>0.0001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7100000000000002E-4</c:v>
+                  <c:v>0.000371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8829999999999999E-3</c:v>
+                  <c:v>0.001883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0946000000000001E-2</c:v>
+                  <c:v>0.010946</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1258000000000001E-2</c:v>
+                  <c:v>0.031258</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8313E-2</c:v>
+                  <c:v>0.038313</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9561999999999997E-2</c:v>
+                  <c:v>0.059562</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0605999999999997E-2</c:v>
+                  <c:v>0.080606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -464,31 +467,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30000</c:v>
+                  <c:v>30000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80000</c:v>
+                  <c:v>80000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000</c:v>
+                  <c:v>100000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>150000</c:v>
+                  <c:v>150000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200000</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -500,31 +503,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.5000000000000001E-5</c:v>
+                  <c:v>2.5E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4899999999999999E-4</c:v>
+                  <c:v>0.000149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4999999999999993E-5</c:v>
+                  <c:v>7.5E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.122E-3</c:v>
+                  <c:v>0.001122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8240000000000002E-3</c:v>
+                  <c:v>0.006824</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1146999999999999E-2</c:v>
+                  <c:v>0.021147</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6249999999999999E-2</c:v>
+                  <c:v>0.02625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1459999999999997E-2</c:v>
+                  <c:v>0.04146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.9327999999999999E-2</c:v>
+                  <c:v>0.059328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -582,31 +585,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30000</c:v>
+                  <c:v>30000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80000</c:v>
+                  <c:v>80000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000</c:v>
+                  <c:v>100000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>150000</c:v>
+                  <c:v>150000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200000</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -618,31 +621,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.4000000000000001E-5</c:v>
+                  <c:v>2.4E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8999999999999998E-5</c:v>
+                  <c:v>4.9E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0100000000000001E-4</c:v>
+                  <c:v>0.000201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4400000000000004E-4</c:v>
+                  <c:v>0.000644</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8019999999999998E-3</c:v>
+                  <c:v>0.004802</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4388E-2</c:v>
+                  <c:v>0.014388</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7260000000000001E-2</c:v>
+                  <c:v>0.01726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6079999999999999E-2</c:v>
+                  <c:v>0.02608</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5456000000000001E-2</c:v>
+                  <c:v>0.035456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -659,8 +662,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1843171552"/>
-        <c:axId val="-1843171008"/>
+        <c:axId val="-2121732496"/>
+        <c:axId val="-2119206768"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -727,31 +730,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>100.0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>500</c:v>
+                        <c:v>500.0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1000</c:v>
+                        <c:v>1000.0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5000</c:v>
+                        <c:v>5000.0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>30000</c:v>
+                        <c:v>30000.0</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>80000</c:v>
+                        <c:v>80000.0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100000</c:v>
+                        <c:v>100000.0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>150000</c:v>
+                        <c:v>150000.0</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>200000</c:v>
+                        <c:v>200000.0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -769,31 +772,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>100.0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>500</c:v>
+                        <c:v>500.0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1000</c:v>
+                        <c:v>1000.0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5000</c:v>
+                        <c:v>5000.0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>30000</c:v>
+                        <c:v>30000.0</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>80000</c:v>
+                        <c:v>80000.0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100000</c:v>
+                        <c:v>100000.0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>150000</c:v>
+                        <c:v>150000.0</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>200000</c:v>
+                        <c:v>200000.0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -862,31 +865,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>100.0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>500</c:v>
+                        <c:v>500.0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1000</c:v>
+                        <c:v>1000.0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5000</c:v>
+                        <c:v>5000.0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>30000</c:v>
+                        <c:v>30000.0</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>80000</c:v>
+                        <c:v>80000.0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100000</c:v>
+                        <c:v>100000.0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>150000</c:v>
+                        <c:v>150000.0</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>200000</c:v>
+                        <c:v>200000.0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -913,7 +916,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1843171552"/>
+        <c:axId val="-2121732496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -954,8 +957,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.35758801367541238"/>
-              <c:y val="0.79307181481832845"/>
+              <c:x val="0.357588013675412"/>
+              <c:y val="0.793071814818328"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1024,7 +1027,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1843171008"/>
+        <c:crossAx val="-2119206768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1032,10 +1035,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1843171008"/>
+        <c:axId val="-2119206768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="60"/>
+          <c:max val="60.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1140,7 +1143,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1843171552"/>
+        <c:crossAx val="-2121732496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1168,7 +1171,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1215,7 +1218,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.787401575" l="0.511811024" r="0.511811024" t="0.787401575" header="0.31496062" footer="0.31496062"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1323,7 +1326,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:tint val="90000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1332,31 +1351,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30000</c:v>
+                  <c:v>30000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80000</c:v>
+                  <c:v>80000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000</c:v>
+                  <c:v>100000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>150000</c:v>
+                  <c:v>150000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200000</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1371,28 +1390,28 @@
                   <c:v>5.1E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E-4</c:v>
+                  <c:v>0.0001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7100000000000002E-4</c:v>
+                  <c:v>0.000371</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8829999999999999E-3</c:v>
+                  <c:v>0.001883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0946000000000001E-2</c:v>
+                  <c:v>0.010946</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1258000000000001E-2</c:v>
+                  <c:v>0.031258</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8313E-2</c:v>
+                  <c:v>0.038313</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9561999999999997E-2</c:v>
+                  <c:v>0.059562</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.0605999999999997E-2</c:v>
+                  <c:v>0.080606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1425,7 +1444,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="70000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:tint val="70000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1434,31 +1469,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30000</c:v>
+                  <c:v>30000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80000</c:v>
+                  <c:v>80000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000</c:v>
+                  <c:v>100000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>150000</c:v>
+                  <c:v>150000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200000</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1470,31 +1505,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.5000000000000001E-5</c:v>
+                  <c:v>2.5E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4899999999999999E-4</c:v>
+                  <c:v>0.000149</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.4999999999999993E-5</c:v>
+                  <c:v>7.5E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.122E-3</c:v>
+                  <c:v>0.001122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.8240000000000002E-3</c:v>
+                  <c:v>0.006824</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1146999999999999E-2</c:v>
+                  <c:v>0.021147</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6249999999999999E-2</c:v>
+                  <c:v>0.02625</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1459999999999997E-2</c:v>
+                  <c:v>0.04146</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.9327999999999999E-2</c:v>
+                  <c:v>0.059328</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1527,7 +1562,23 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:tint val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:tint val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:cat>
             <c:numRef>
@@ -1536,31 +1587,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30000</c:v>
+                  <c:v>30000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>80000</c:v>
+                  <c:v>80000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100000</c:v>
+                  <c:v>100000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>150000</c:v>
+                  <c:v>150000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>200000</c:v>
+                  <c:v>200000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1572,31 +1623,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.4000000000000001E-5</c:v>
+                  <c:v>2.4E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8999999999999998E-5</c:v>
+                  <c:v>4.9E-5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0100000000000001E-4</c:v>
+                  <c:v>0.000201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.4400000000000004E-4</c:v>
+                  <c:v>0.000644</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8019999999999998E-3</c:v>
+                  <c:v>0.004802</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4388E-2</c:v>
+                  <c:v>0.014388</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7260000000000001E-2</c:v>
+                  <c:v>0.01726</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6079999999999999E-2</c:v>
+                  <c:v>0.02608</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.5456000000000001E-2</c:v>
+                  <c:v>0.035456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1611,9 +1662,10 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1843178080"/>
-        <c:axId val="-1843175904"/>
+        <c:axId val="-2118543344"/>
+        <c:axId val="-2118537376"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -1664,31 +1716,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>100.0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>500</c:v>
+                        <c:v>500.0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1000</c:v>
+                        <c:v>1000.0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5000</c:v>
+                        <c:v>5000.0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>30000</c:v>
+                        <c:v>30000.0</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>80000</c:v>
+                        <c:v>80000.0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100000</c:v>
+                        <c:v>100000.0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>150000</c:v>
+                        <c:v>150000.0</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>200000</c:v>
+                        <c:v>200000.0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1706,31 +1758,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>100.0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>500</c:v>
+                        <c:v>500.0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1000</c:v>
+                        <c:v>1000.0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5000</c:v>
+                        <c:v>5000.0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>30000</c:v>
+                        <c:v>30000.0</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>80000</c:v>
+                        <c:v>80000.0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100000</c:v>
+                        <c:v>100000.0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>150000</c:v>
+                        <c:v>150000.0</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>200000</c:v>
+                        <c:v>200000.0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1783,31 +1835,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>100.0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>500</c:v>
+                        <c:v>500.0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1000</c:v>
+                        <c:v>1000.0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5000</c:v>
+                        <c:v>5000.0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>30000</c:v>
+                        <c:v>30000.0</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>80000</c:v>
+                        <c:v>80000.0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100000</c:v>
+                        <c:v>100000.0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>150000</c:v>
+                        <c:v>150000.0</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>200000</c:v>
+                        <c:v>200000.0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1878,31 +1930,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>100</c:v>
+                        <c:v>100.0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>500</c:v>
+                        <c:v>500.0</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1000</c:v>
+                        <c:v>1000.0</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>5000</c:v>
+                        <c:v>5000.0</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>30000</c:v>
+                        <c:v>30000.0</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>80000</c:v>
+                        <c:v>80000.0</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>100000</c:v>
+                        <c:v>100000.0</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>150000</c:v>
+                        <c:v>150000.0</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>200000</c:v>
+                        <c:v>200000.0</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1923,28 +1975,28 @@
                         <c:v>2.3E-5</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2.5300000000000002E-4</c:v>
+                        <c:v>0.000253</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>1.1529999999999999E-3</c:v>
+                        <c:v>0.001153</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>3.7064E-2</c:v>
+                        <c:v>0.037064</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1.2469699999999999</c:v>
+                        <c:v>1.24697</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>9.1857930000000003</c:v>
+                        <c:v>9.185793</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>14.000083999999999</c:v>
+                        <c:v>14.000084</c:v>
                       </c:pt>
                       <c:pt idx="7">
                         <c:v>31.729232</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>57.557999000000002</c:v>
+                        <c:v>57.557999</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -1956,7 +2008,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1843178080"/>
+        <c:axId val="-2118543344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,7 +2021,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1992,8 +2044,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.33889334418100103"/>
-              <c:y val="0.79297361427486712"/>
+              <c:x val="0.338893344181001"/>
+              <c:y val="0.792973614274867"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2009,7 +2061,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2062,7 +2114,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1843175904"/>
+        <c:crossAx val="-2118537376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2070,7 +2122,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1843175904"/>
+        <c:axId val="-2118537376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2111,13 +2163,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="pt-BR" sz="1200"/>
-                  <a:t>Tempo</a:t>
+                  <a:t>Tempo em Segundos</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="pt-BR" sz="1200" baseline="0"/>
-                  <a:t> em Segundos</a:t>
-                </a:r>
-                <a:endParaRPr lang="pt-BR" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2182,7 +2229,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1843178080"/>
+        <c:crossAx val="-2118543344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2210,7 +2257,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2257,7 +2304,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.787401575" l="0.511811024" r="0.511811024" t="0.787401575" header="0.31496062" footer="0.31496062"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3349,7 +3396,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3387,7 +3434,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3459,7 +3506,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3612,19 +3659,19 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3641,7 +3688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -3658,7 +3705,7 @@
         <v>2.4000000000000001E-5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>500</v>
       </c>
@@ -3675,7 +3722,7 @@
         <v>4.8999999999999998E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
@@ -3692,7 +3739,7 @@
         <v>2.0100000000000001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5000</v>
       </c>
@@ -3709,7 +3756,7 @@
         <v>6.4400000000000004E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>30000</v>
       </c>
@@ -3726,7 +3773,7 @@
         <v>4.8019999999999998E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>80000</v>
       </c>
@@ -3743,7 +3790,7 @@
         <v>1.4388E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>100000</v>
       </c>
@@ -3760,7 +3807,7 @@
         <v>1.7260000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>150000</v>
       </c>
@@ -3777,7 +3824,7 @@
         <v>2.6079999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>200000</v>
       </c>
